--- a/Code/Results/Cases/Case_8_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018170779273226</v>
+        <v>1.01488375908122</v>
       </c>
       <c r="D2">
-        <v>1.033814854059632</v>
+        <v>1.030581636717775</v>
       </c>
       <c r="E2">
-        <v>1.029923384521905</v>
+        <v>1.027293187404806</v>
       </c>
       <c r="F2">
-        <v>1.035812332391675</v>
+        <v>1.033686681314261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053895611914874</v>
+        <v>1.051849384289506</v>
       </c>
       <c r="J2">
-        <v>1.039821263522069</v>
+        <v>1.036628233425302</v>
       </c>
       <c r="K2">
-        <v>1.044822368453387</v>
+        <v>1.041630747755852</v>
       </c>
       <c r="L2">
-        <v>1.040981004277608</v>
+        <v>1.038384941960844</v>
       </c>
       <c r="M2">
-        <v>1.046794310558432</v>
+        <v>1.044695838510083</v>
       </c>
       <c r="N2">
-        <v>1.041297928985449</v>
+        <v>1.030134222542342</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045606930681658</v>
+        <v>1.043946140530207</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042763575772599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040515576042855</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023108666337183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021695498441419</v>
+        <v>1.01813947105482</v>
       </c>
       <c r="D3">
-        <v>1.036153989166723</v>
+        <v>1.032646963835128</v>
       </c>
       <c r="E3">
-        <v>1.032708330369957</v>
+        <v>1.029857573139946</v>
       </c>
       <c r="F3">
-        <v>1.038591098083557</v>
+        <v>1.036289248550802</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054837287096893</v>
+        <v>1.052616480116566</v>
       </c>
       <c r="J3">
-        <v>1.04161170142305</v>
+        <v>1.038147560410661</v>
       </c>
       <c r="K3">
-        <v>1.046344262952091</v>
+        <v>1.042878489885546</v>
       </c>
       <c r="L3">
-        <v>1.042939131598479</v>
+        <v>1.040122158699281</v>
       </c>
       <c r="M3">
-        <v>1.04875290766014</v>
+        <v>1.046477938232953</v>
       </c>
       <c r="N3">
-        <v>1.043090909513603</v>
+        <v>1.030986050294203</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047157016453306</v>
+        <v>1.045356544913093</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043837025056017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041394900994215</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023344016488446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023937485050979</v>
+        <v>1.02021182754908</v>
       </c>
       <c r="D4">
-        <v>1.037644982465217</v>
+        <v>1.03396470923925</v>
       </c>
       <c r="E4">
-        <v>1.034485576478046</v>
+        <v>1.031495628624047</v>
       </c>
       <c r="F4">
-        <v>1.040366539240462</v>
+        <v>1.037953586746697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055426762802403</v>
+        <v>1.053095297244539</v>
       </c>
       <c r="J4">
-        <v>1.042748074195789</v>
+        <v>1.039112272346984</v>
       </c>
       <c r="K4">
-        <v>1.047309342137709</v>
+        <v>1.043669788931797</v>
       </c>
       <c r="L4">
-        <v>1.044184871440603</v>
+        <v>1.041228227649584</v>
       </c>
       <c r="M4">
-        <v>1.050001014078585</v>
+        <v>1.047614548022019</v>
       </c>
       <c r="N4">
-        <v>1.044228896066023</v>
+        <v>1.031526923960733</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048144799327207</v>
+        <v>1.046256088795108</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044520300943559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041955387780016</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023490909948707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024873890240829</v>
+        <v>1.021077563672279</v>
       </c>
       <c r="D5">
-        <v>1.038270521352965</v>
+        <v>1.034518046097306</v>
       </c>
       <c r="E5">
-        <v>1.035229440859945</v>
+        <v>1.032181474804771</v>
       </c>
       <c r="F5">
-        <v>1.041109635908777</v>
+        <v>1.038650394092137</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055672123291244</v>
+        <v>1.053294470802526</v>
       </c>
       <c r="J5">
-        <v>1.043223442668556</v>
+        <v>1.039515981636928</v>
       </c>
       <c r="K5">
-        <v>1.04771440861948</v>
+        <v>1.044002363482534</v>
       </c>
       <c r="L5">
-        <v>1.044706065890672</v>
+        <v>1.041691149223518</v>
       </c>
       <c r="M5">
-        <v>1.050523170975429</v>
+        <v>1.048090208463412</v>
       </c>
       <c r="N5">
-        <v>1.044704939616546</v>
+        <v>1.031753266216013</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048558047063683</v>
+        <v>1.046632539071153</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044813837765469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042198394545433</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023552583318798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025034119052708</v>
+        <v>1.021225530547592</v>
       </c>
       <c r="D6">
-        <v>1.038380123235655</v>
+        <v>1.034615241298868</v>
       </c>
       <c r="E6">
-        <v>1.035357043271607</v>
+        <v>1.032298998565402</v>
       </c>
       <c r="F6">
-        <v>1.041236498508787</v>
+        <v>1.038769217469537</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055715759151712</v>
+        <v>1.053330139787199</v>
       </c>
       <c r="J6">
-        <v>1.04330640081398</v>
+        <v>1.039586513341797</v>
       </c>
       <c r="K6">
-        <v>1.047786978543174</v>
+        <v>1.044062477307551</v>
       </c>
       <c r="L6">
-        <v>1.044796294523011</v>
+        <v>1.041771257194683</v>
       </c>
       <c r="M6">
-        <v>1.050612955837666</v>
+        <v>1.04817191993501</v>
       </c>
       <c r="N6">
-        <v>1.044788015572053</v>
+        <v>1.031792810237263</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048629104975975</v>
+        <v>1.046697207675379</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044873838105121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042250474856635</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023564317212508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02395949115538</v>
+        <v>1.02024939494751</v>
       </c>
       <c r="D7">
-        <v>1.037666422363005</v>
+        <v>1.033997182997136</v>
       </c>
       <c r="E7">
-        <v>1.034503705247271</v>
+        <v>1.031527122288542</v>
       </c>
       <c r="F7">
-        <v>1.040382931383564</v>
+        <v>1.037980536166736</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055437319798435</v>
+        <v>1.053113959033208</v>
       </c>
       <c r="J7">
-        <v>1.042763678088005</v>
+        <v>1.039143022664792</v>
       </c>
       <c r="K7">
-        <v>1.047327689654272</v>
+        <v>1.043699032111591</v>
       </c>
       <c r="L7">
-        <v>1.044199931158591</v>
+        <v>1.041256490389659</v>
       </c>
       <c r="M7">
-        <v>1.050014380525066</v>
+        <v>1.047638345738213</v>
       </c>
       <c r="N7">
-        <v>1.044244522117555</v>
+        <v>1.031596013472222</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048155377862674</v>
+        <v>1.046274922942803</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044553257326112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041998088394677</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023499894861526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019381882711007</v>
+        <v>1.016056459455253</v>
       </c>
       <c r="D8">
-        <v>1.034626197769556</v>
+        <v>1.031338544730323</v>
       </c>
       <c r="E8">
-        <v>1.030879963118574</v>
+        <v>1.028220360949554</v>
       </c>
       <c r="F8">
-        <v>1.036764209088759</v>
+        <v>1.03461464182196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054226937371312</v>
+        <v>1.052149435041102</v>
       </c>
       <c r="J8">
-        <v>1.040442416756187</v>
+        <v>1.037208933485611</v>
       </c>
       <c r="K8">
-        <v>1.045356705233819</v>
+        <v>1.042110110035497</v>
       </c>
       <c r="L8">
-        <v>1.041657281370195</v>
+        <v>1.039031170405027</v>
       </c>
       <c r="M8">
-        <v>1.047468189992521</v>
+        <v>1.045345293033322</v>
       </c>
       <c r="N8">
-        <v>1.041919964328394</v>
+        <v>1.030616966057236</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046140257134052</v>
+        <v>1.044460137617716</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043164163842559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040879604603597</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023207439692573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010991952278079</v>
+        <v>1.008326529518317</v>
       </c>
       <c r="D9">
-        <v>1.02906965793355</v>
+        <v>1.026446741507719</v>
       </c>
       <c r="E9">
-        <v>1.024284491250633</v>
+        <v>1.022165743941783</v>
       </c>
       <c r="F9">
-        <v>1.030197514507264</v>
+        <v>1.028480513338609</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051927406042746</v>
+        <v>1.050273127394445</v>
       </c>
       <c r="J9">
-        <v>1.03616243930808</v>
+        <v>1.033588644454294</v>
       </c>
       <c r="K9">
-        <v>1.041708071370629</v>
+        <v>1.039124831457753</v>
       </c>
       <c r="L9">
-        <v>1.036995484119569</v>
+        <v>1.034909150031887</v>
       </c>
       <c r="M9">
-        <v>1.042818946083699</v>
+        <v>1.041127816243128</v>
       </c>
       <c r="N9">
-        <v>1.03763390882139</v>
+        <v>1.028606187967003</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042460711559919</v>
+        <v>1.041122298070066</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040581208799326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038765387475116</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022630391074945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005242959951409</v>
+        <v>1.003115779125545</v>
       </c>
       <c r="D10">
-        <v>1.025290256952789</v>
+        <v>1.023183664760103</v>
       </c>
       <c r="E10">
-        <v>1.019839831713142</v>
+        <v>1.01816438640738</v>
       </c>
       <c r="F10">
-        <v>1.025833686162477</v>
+        <v>1.024471374083268</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050322518711888</v>
+        <v>1.049000619411643</v>
       </c>
       <c r="J10">
-        <v>1.033250093849392</v>
+        <v>1.031206319909338</v>
       </c>
       <c r="K10">
-        <v>1.039217423498308</v>
+        <v>1.037146578305705</v>
       </c>
       <c r="L10">
-        <v>1.033859879083631</v>
+        <v>1.032213243474613</v>
       </c>
       <c r="M10">
-        <v>1.03975166193287</v>
+        <v>1.038412413799664</v>
       </c>
       <c r="N10">
-        <v>1.0347174274981</v>
+        <v>1.027501902605045</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040084502645663</v>
+        <v>1.039024642052925</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038836912001536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037385081560857</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022249654657546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003242734080446</v>
+        <v>1.001384936921731</v>
       </c>
       <c r="D11">
-        <v>1.024037097954193</v>
+        <v>1.022164962321298</v>
       </c>
       <c r="E11">
-        <v>1.018630746224754</v>
+        <v>1.01717924505334</v>
       </c>
       <c r="F11">
-        <v>1.0250534182601</v>
+        <v>1.023871209638261</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049892240841296</v>
+        <v>1.048727405283824</v>
       </c>
       <c r="J11">
-        <v>1.032481230990909</v>
+        <v>1.030700214180397</v>
       </c>
       <c r="K11">
-        <v>1.038519513494023</v>
+        <v>1.036680645003605</v>
       </c>
       <c r="L11">
-        <v>1.033209663703116</v>
+        <v>1.031784298514487</v>
       </c>
       <c r="M11">
-        <v>1.039517840174072</v>
+        <v>1.038356566577413</v>
       </c>
       <c r="N11">
-        <v>1.033947472766168</v>
+        <v>1.027659831452011</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040334734731577</v>
+        <v>1.039416181350344</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038376157655456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03709159922924</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022207956084142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002689294940364</v>
+        <v>1.000900871138589</v>
       </c>
       <c r="D12">
-        <v>1.023711171771831</v>
+        <v>1.021897145914149</v>
       </c>
       <c r="E12">
-        <v>1.018448713342523</v>
+        <v>1.017053298784057</v>
       </c>
       <c r="F12">
-        <v>1.025172038516866</v>
+        <v>1.024035903509141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049831694607326</v>
+        <v>1.048706807233706</v>
       </c>
       <c r="J12">
-        <v>1.032380273458965</v>
+        <v>1.030667153355372</v>
       </c>
       <c r="K12">
-        <v>1.03839777838523</v>
+        <v>1.036616520875589</v>
       </c>
       <c r="L12">
-        <v>1.033230799397308</v>
+        <v>1.031860918395335</v>
       </c>
       <c r="M12">
-        <v>1.039832365731675</v>
+        <v>1.038716660129675</v>
       </c>
       <c r="N12">
-        <v>1.033846371862949</v>
+        <v>1.02783317939687</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040909190109364</v>
+        <v>1.040026978151206</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03829008773017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037046262582992</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022225290911141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003224304648923</v>
+        <v>1.001343513841906</v>
       </c>
       <c r="D13">
-        <v>1.024091948986809</v>
+        <v>1.02219565545255</v>
       </c>
       <c r="E13">
-        <v>1.019056708331983</v>
+        <v>1.017582252048398</v>
       </c>
       <c r="F13">
-        <v>1.026011031181668</v>
+        <v>1.024813319330209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050064837648101</v>
+        <v>1.04888626865171</v>
       </c>
       <c r="J13">
-        <v>1.032800705847532</v>
+        <v>1.03099870891392</v>
       </c>
       <c r="K13">
-        <v>1.038729161221159</v>
+        <v>1.036866978298902</v>
       </c>
       <c r="L13">
-        <v>1.033784857686947</v>
+        <v>1.032337252017064</v>
       </c>
       <c r="M13">
-        <v>1.040613889560189</v>
+        <v>1.039437598573813</v>
       </c>
       <c r="N13">
-        <v>1.034267401313732</v>
+        <v>1.027976630980669</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04180319380145</v>
+        <v>1.040873308590653</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038521903074299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037220612882594</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02229396939592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004090806947826</v>
+        <v>1.002075803703533</v>
       </c>
       <c r="D14">
-        <v>1.024679129204717</v>
+        <v>1.022664704495392</v>
       </c>
       <c r="E14">
-        <v>1.019837341361951</v>
+        <v>1.018250122501784</v>
       </c>
       <c r="F14">
-        <v>1.02692143961704</v>
+        <v>1.025634754009182</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050360625471437</v>
+        <v>1.049104094327946</v>
       </c>
       <c r="J14">
-        <v>1.033329800649144</v>
+        <v>1.031398012096228</v>
       </c>
       <c r="K14">
-        <v>1.039166551489759</v>
+        <v>1.037187917168163</v>
       </c>
       <c r="L14">
-        <v>1.034411097772253</v>
+        <v>1.032852412930427</v>
       </c>
       <c r="M14">
-        <v>1.041369236753076</v>
+        <v>1.040105261425581</v>
       </c>
       <c r="N14">
-        <v>1.03479724749065</v>
+        <v>1.02806589885611</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042573240452694</v>
+        <v>1.041574173156944</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038832567546683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037449079521455</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022366765998681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004544813814175</v>
+        <v>1.00246339353793</v>
       </c>
       <c r="D15">
-        <v>1.024982781056991</v>
+        <v>1.022910086920921</v>
       </c>
       <c r="E15">
-        <v>1.020210005006031</v>
+        <v>1.018567523629158</v>
       </c>
       <c r="F15">
-        <v>1.02731818493779</v>
+        <v>1.025987635135729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050501178585479</v>
+        <v>1.049206017881797</v>
       </c>
       <c r="J15">
-        <v>1.033579785386402</v>
+        <v>1.031583579385946</v>
       </c>
       <c r="K15">
-        <v>1.039379052604776</v>
+        <v>1.037342907650688</v>
       </c>
       <c r="L15">
-        <v>1.03469072717058</v>
+        <v>1.033077545943591</v>
       </c>
       <c r="M15">
-        <v>1.041673503654937</v>
+        <v>1.040366256300959</v>
       </c>
       <c r="N15">
-        <v>1.035047587234909</v>
+        <v>1.028090292017976</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042851194141045</v>
+        <v>1.041817951015515</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038988654146506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037565081613161</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02239860928634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006873756497078</v>
+        <v>1.004480512079314</v>
       </c>
       <c r="D16">
-        <v>1.026509164176793</v>
+        <v>1.024161027691474</v>
       </c>
       <c r="E16">
-        <v>1.021977605480685</v>
+        <v>1.020078000073491</v>
       </c>
       <c r="F16">
-        <v>1.029036549291667</v>
+        <v>1.027500768827081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051150734572089</v>
+        <v>1.049672777073986</v>
       </c>
       <c r="J16">
-        <v>1.034741362685778</v>
+        <v>1.032441264161341</v>
       </c>
       <c r="K16">
-        <v>1.04038041091574</v>
+        <v>1.038071894199798</v>
       </c>
       <c r="L16">
-        <v>1.035925523489276</v>
+        <v>1.034058320061539</v>
       </c>
       <c r="M16">
-        <v>1.0428654121915</v>
+        <v>1.041355354473585</v>
       </c>
       <c r="N16">
-        <v>1.036210814107285</v>
+        <v>1.02816931393278</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043754644629047</v>
+        <v>1.042561067019963</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039699795089206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038083954911716</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022530852181985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008209136957785</v>
+        <v>1.005660359639233</v>
       </c>
       <c r="D17">
-        <v>1.027375254584316</v>
+        <v>1.024886849758899</v>
       </c>
       <c r="E17">
-        <v>1.022926889741015</v>
+        <v>1.020899616240405</v>
       </c>
       <c r="F17">
-        <v>1.029874242752786</v>
+        <v>1.028236060440086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051492345545147</v>
+        <v>1.04992167350233</v>
       </c>
       <c r="J17">
-        <v>1.035355464717186</v>
+        <v>1.032902743026879</v>
       </c>
       <c r="K17">
-        <v>1.040919737994578</v>
+        <v>1.038472153206734</v>
       </c>
       <c r="L17">
-        <v>1.036544524508331</v>
+        <v>1.034550860918615</v>
       </c>
       <c r="M17">
-        <v>1.043377987512144</v>
+        <v>1.041766482212912</v>
       </c>
       <c r="N17">
-        <v>1.036825788234017</v>
+        <v>1.028241395673018</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044031063921323</v>
+        <v>1.042757173815769</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04008369119644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03836977927494</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022595831134413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008797703782044</v>
+        <v>1.006196601222735</v>
       </c>
       <c r="D18">
-        <v>1.027734661105459</v>
+        <v>1.025197773774215</v>
       </c>
       <c r="E18">
-        <v>1.023225464114815</v>
+        <v>1.021155645095915</v>
       </c>
       <c r="F18">
-        <v>1.029972375239616</v>
+        <v>1.028299250458884</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051589207910597</v>
+        <v>1.049986387373692</v>
       </c>
       <c r="J18">
-        <v>1.035532415629604</v>
+        <v>1.033027535251516</v>
       </c>
       <c r="K18">
-        <v>1.041091235643439</v>
+        <v>1.03859528787456</v>
       </c>
       <c r="L18">
-        <v>1.036654986965114</v>
+        <v>1.034618930092567</v>
       </c>
       <c r="M18">
-        <v>1.043293052822165</v>
+        <v>1.04164674906613</v>
       </c>
       <c r="N18">
-        <v>1.037002990437026</v>
+        <v>1.02822958486263</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043726847321403</v>
+        <v>1.042425178997504</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040193367843051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038444109517189</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022599004210092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008717867161892</v>
+        <v>1.006144711077896</v>
       </c>
       <c r="D19">
-        <v>1.027649965933425</v>
+        <v>1.025138429409849</v>
       </c>
       <c r="E19">
-        <v>1.022935785234252</v>
+        <v>1.020889436500547</v>
       </c>
       <c r="F19">
-        <v>1.029394589051028</v>
+        <v>1.027738792216122</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051474195107986</v>
+        <v>1.04988738224146</v>
       </c>
       <c r="J19">
-        <v>1.035322795210724</v>
+        <v>1.032844289353503</v>
       </c>
       <c r="K19">
-        <v>1.040945823968597</v>
+        <v>1.038474609205875</v>
       </c>
       <c r="L19">
-        <v>1.036307536876883</v>
+        <v>1.034294412580012</v>
       </c>
       <c r="M19">
-        <v>1.042662586244981</v>
+        <v>1.041033228805574</v>
       </c>
       <c r="N19">
-        <v>1.036793072333107</v>
+        <v>1.028103816426967</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042903726532552</v>
+        <v>1.041615037844697</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040096920566093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038365783672228</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022549173987001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006757136672974</v>
+        <v>1.004435754669363</v>
       </c>
       <c r="D20">
-        <v>1.026300700776911</v>
+        <v>1.024020396362849</v>
       </c>
       <c r="E20">
-        <v>1.021012152183019</v>
+        <v>1.019174741483636</v>
       </c>
       <c r="F20">
-        <v>1.026982438601116</v>
+        <v>1.025491012221986</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050760400644787</v>
+        <v>1.049323825224857</v>
       </c>
       <c r="J20">
-        <v>1.034030044256865</v>
+        <v>1.03179674981706</v>
       </c>
       <c r="K20">
-        <v>1.039896329041657</v>
+        <v>1.037653628608942</v>
       </c>
       <c r="L20">
-        <v>1.03469532369273</v>
+        <v>1.032888602393156</v>
       </c>
       <c r="M20">
-        <v>1.040566866180146</v>
+        <v>1.039099968242549</v>
       </c>
       <c r="N20">
-        <v>1.035498485524613</v>
+        <v>1.027638801312113</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040719120971829</v>
+        <v>1.039558226376987</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039358795923777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037789618647625</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022346991750589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00233986446967</v>
+        <v>1.000675691731817</v>
       </c>
       <c r="D21">
-        <v>1.02339053291269</v>
+        <v>1.021685174017394</v>
       </c>
       <c r="E21">
-        <v>1.017545628174039</v>
+        <v>1.016259588127695</v>
       </c>
       <c r="F21">
-        <v>1.023504208330209</v>
+        <v>1.02245122411119</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049482987402549</v>
+        <v>1.048428709259801</v>
       </c>
       <c r="J21">
-        <v>1.031740081619939</v>
+        <v>1.030145189691438</v>
       </c>
       <c r="K21">
-        <v>1.037941913200528</v>
+        <v>1.036267039924139</v>
       </c>
       <c r="L21">
-        <v>1.032202046909742</v>
+        <v>1.030939329194686</v>
       </c>
       <c r="M21">
-        <v>1.038053561203377</v>
+        <v>1.037019379488978</v>
       </c>
       <c r="N21">
-        <v>1.033205270878081</v>
+        <v>1.027518676100158</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038689229317861</v>
+        <v>1.037870741299552</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037980175461817</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036812793620332</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022093529575986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9995333559604662</v>
+        <v>0.9982678529133834</v>
       </c>
       <c r="D22">
-        <v>1.021543293521719</v>
+        <v>1.02018914449925</v>
       </c>
       <c r="E22">
-        <v>1.01537045531344</v>
+        <v>1.014419819120582</v>
       </c>
       <c r="F22">
-        <v>1.021351152958407</v>
+        <v>1.020564754080466</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04866602103122</v>
+        <v>1.047843888937077</v>
       </c>
       <c r="J22">
-        <v>1.030294044040585</v>
+        <v>1.029084260248389</v>
       </c>
       <c r="K22">
-        <v>1.036699722643386</v>
+        <v>1.035370986811509</v>
       </c>
       <c r="L22">
-        <v>1.030643448621278</v>
+        <v>1.029710928601467</v>
       </c>
       <c r="M22">
-        <v>1.036511182607987</v>
+        <v>1.035739538535448</v>
       </c>
       <c r="N22">
-        <v>1.031757179759501</v>
+        <v>1.027393966859848</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037468535954329</v>
+        <v>1.036857828563658</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.0370884505483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036164481780936</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021927150249707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001017685101122</v>
+        <v>0.9995183668169907</v>
       </c>
       <c r="D23">
-        <v>1.022514044162181</v>
+        <v>1.020957135141439</v>
       </c>
       <c r="E23">
-        <v>1.016519261958601</v>
+        <v>1.015371016245625</v>
       </c>
       <c r="F23">
-        <v>1.02248957834461</v>
+        <v>1.021546361033502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049095138231659</v>
+        <v>1.048138147222743</v>
       </c>
       <c r="J23">
-        <v>1.03105519699021</v>
+        <v>1.029619977670416</v>
       </c>
       <c r="K23">
-        <v>1.037349509142566</v>
+        <v>1.035821081944664</v>
       </c>
       <c r="L23">
-        <v>1.031465018794346</v>
+        <v>1.030338092343301</v>
       </c>
       <c r="M23">
-        <v>1.037325490025203</v>
+        <v>1.036399515345151</v>
       </c>
       <c r="N23">
-        <v>1.03251941363362</v>
+        <v>1.027375671799548</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03811300811173</v>
+        <v>1.037380158423637</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037538278018415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036472169059033</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022006578757595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006763955573867</v>
+        <v>1.004444308717969</v>
       </c>
       <c r="D24">
-        <v>1.026291059559132</v>
+        <v>1.024012047012494</v>
       </c>
       <c r="E24">
-        <v>1.020984070234514</v>
+        <v>1.019148190423825</v>
       </c>
       <c r="F24">
-        <v>1.026916717759374</v>
+        <v>1.025426323714205</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050743224540081</v>
+        <v>1.049307491623612</v>
       </c>
       <c r="J24">
-        <v>1.034004095935392</v>
+        <v>1.031772345470488</v>
       </c>
       <c r="K24">
-        <v>1.039871686867815</v>
+        <v>1.037630209739894</v>
       </c>
       <c r="L24">
-        <v>1.034652437716687</v>
+        <v>1.032847184541753</v>
       </c>
       <c r="M24">
-        <v>1.040487077931777</v>
+        <v>1.039021167986052</v>
       </c>
       <c r="N24">
-        <v>1.035472500353548</v>
+        <v>1.02761722261694</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040615196916112</v>
+        <v>1.039455026731255</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039314095374124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037743070966697</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022336436317435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013214111804465</v>
+        <v>1.010349288228307</v>
       </c>
       <c r="D25">
-        <v>1.030548317837859</v>
+        <v>1.027731917497895</v>
       </c>
       <c r="E25">
-        <v>1.026026878990031</v>
+        <v>1.023743909837399</v>
       </c>
       <c r="F25">
-        <v>1.031927619771907</v>
+        <v>1.03007937461548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052551945188799</v>
+        <v>1.0507731788009</v>
       </c>
       <c r="J25">
-        <v>1.03730480750399</v>
+        <v>1.034533307693327</v>
       </c>
       <c r="K25">
-        <v>1.042690221926523</v>
+        <v>1.03991446098658</v>
       </c>
       <c r="L25">
-        <v>1.038234162908493</v>
+        <v>1.035984483813821</v>
       </c>
       <c r="M25">
-        <v>1.044049723604261</v>
+        <v>1.042228025812096</v>
       </c>
       <c r="N25">
-        <v>1.03877789931117</v>
+        <v>1.029070216620919</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04343478615325</v>
+        <v>1.041993038901903</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041304077365456</v>
+        <v>1.039354986116167</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022785346908718</v>
       </c>
     </row>
   </sheetData>
